--- a/src/main/resources/cases/cases.xlsx
+++ b/src/main/resources/cases/cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -907,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -927,7 +927,7 @@
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" ht="12" r="4" spans="1:6">
@@ -947,7 +947,7 @@
         <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -967,7 +967,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="6" spans="1:6">

--- a/src/main/resources/cases/cases.xlsx
+++ b/src/main/resources/cases/cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
   <si>
     <t>ApiId(接口编号)</t>
   </si>

--- a/src/main/resources/cases/cases.xlsx
+++ b/src/main/resources/cases/cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
